--- a/data/trans_dic/P69$agotado-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P69$agotado-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1639998880932443</v>
+        <v>0.1621092981162231</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1617972023381178</v>
+        <v>0.1634005684710173</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2361532872528949</v>
+        <v>0.2336601104895719</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2095589804780082</v>
+        <v>0.2030038690711603</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2119635620246378</v>
+        <v>0.2201579957506108</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2256051133204872</v>
+        <v>0.2210031053300383</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2047357906423748</v>
+        <v>0.2056232119282848</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3011124397857726</v>
+        <v>0.2956820289278516</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2130442996093976</v>
+        <v>0.206903719624483</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2069962059091145</v>
+        <v>0.2041284308423005</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2570723771659451</v>
+        <v>0.2542672673721288</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2775343640373901</v>
+        <v>0.2713135555609021</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3721896157758626</v>
+        <v>0.3801334036027633</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3736737671215111</v>
+        <v>0.367386848011416</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4964313410443656</v>
+        <v>0.513288569960261</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4715471293588795</v>
+        <v>0.4624081424202323</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5457886524588308</v>
+        <v>0.54877516099567</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5562997089680659</v>
+        <v>0.5517813738999647</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5561137262690375</v>
+        <v>0.5440062079175273</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.519965129170564</v>
+        <v>0.5169132563489849</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3919946266475925</v>
+        <v>0.3832208050585113</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3797781823408778</v>
+        <v>0.3820056735655579</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4693862568929243</v>
+        <v>0.4571563894821395</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4603190535201129</v>
+        <v>0.4544931416347059</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.3370615025365202</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.4018042692324245</v>
+        <v>0.4018042692324246</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.2288736466209634</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2557232011391057</v>
+        <v>0.2571115864842959</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1483062416303487</v>
+        <v>0.1515546756125848</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2348899418431299</v>
+        <v>0.2413456483881021</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3041910029419963</v>
+        <v>0.3097899873179361</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.124857603104935</v>
+        <v>0.1226282505720111</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2437757230198652</v>
+        <v>0.2408019819273904</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3205345358365088</v>
+        <v>0.3252634808888846</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3184251236466128</v>
+        <v>0.3290364446315394</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2354171929773451</v>
+        <v>0.2424308477911191</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2032073620495065</v>
+        <v>0.2086979870429568</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2948555207900232</v>
+        <v>0.3062226384588222</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3381356749849532</v>
+        <v>0.3303396574325467</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.418743155809524</v>
+        <v>0.4169798124950611</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.332125671816836</v>
+        <v>0.3496474441781319</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4457155258021084</v>
+        <v>0.4498703500681043</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5135812927216512</v>
+        <v>0.5078567955233763</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3683481732493106</v>
+        <v>0.3521515191030088</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4933223348123342</v>
+        <v>0.488247011606173</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5931999513120366</v>
+        <v>0.5958026247778275</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4840613197853179</v>
+        <v>0.4923509098577973</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3801728799358042</v>
+        <v>0.3741042925432509</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3584319671848729</v>
+        <v>0.3674460272845904</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4588669694628451</v>
+        <v>0.4649407973741636</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4697206911109593</v>
+        <v>0.4752550965222061</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.4108675601914237</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.3863222859026501</v>
+        <v>0.3863222859026499</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.3259895040599936</v>
@@ -957,7 +957,7 @@
         <v>0.4594046506054517</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.4331622341057045</v>
+        <v>0.4331622341057046</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.2748417494111297</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1688634520328</v>
+        <v>0.1619547798425685</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1835241069361843</v>
+        <v>0.1763459851948974</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3189958399040279</v>
+        <v>0.3185004754918037</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2661092792300635</v>
+        <v>0.2481246922383558</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.206050741752306</v>
+        <v>0.2112530243894995</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1701599621709915</v>
+        <v>0.1699054955150238</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3374338135601127</v>
+        <v>0.320651184692041</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.33000463186871</v>
+        <v>0.3258299094890084</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2071722343955556</v>
+        <v>0.208597482382208</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2082080777208131</v>
+        <v>0.209871842577148</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3533602041309596</v>
+        <v>0.3489280913339136</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3144651199131511</v>
+        <v>0.3233376064239286</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3557537019977965</v>
+        <v>0.351208327417487</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3960335388410524</v>
+        <v>0.3894955105183449</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5049690917128571</v>
+        <v>0.5030305625212302</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5322934984618347</v>
+        <v>0.5182204166869979</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4848115367307921</v>
+        <v>0.4767709932489253</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4303441652026961</v>
+        <v>0.4310987205755696</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5855574998523791</v>
+        <v>0.5749849735639316</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5494104830009506</v>
+        <v>0.5535463277908526</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3634504826912803</v>
+        <v>0.3562336594605657</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3733350673271038</v>
+        <v>0.3757033866474161</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.5076638542965581</v>
+        <v>0.5096997404260486</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.5027712629327942</v>
+        <v>0.4895655268127864</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2951389433857236</v>
+        <v>0.2983505258194994</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1141104991715147</v>
+        <v>0.1140750574311857</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3432162388445774</v>
+        <v>0.3419276401584468</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2425508886906303</v>
+        <v>0.2458009294164839</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2282772841175982</v>
+        <v>0.228439656744725</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2516149349466194</v>
+        <v>0.2565151937290706</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2474210308214765</v>
+        <v>0.2426947461093696</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3817275594731146</v>
+        <v>0.3709241153880802</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3025835697101195</v>
+        <v>0.3015867161396728</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2051779060866045</v>
+        <v>0.2085014808794151</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.333887960639181</v>
+        <v>0.3322853279295273</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3345965996997092</v>
+        <v>0.3391074808221358</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4609681029347593</v>
+        <v>0.4711823694050756</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.303825978311203</v>
+        <v>0.3124517390286004</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5576310675479258</v>
+        <v>0.568507215388997</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4324845140367709</v>
+        <v>0.4490927977829497</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4403465028950755</v>
+        <v>0.4294761335164021</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4947737790548305</v>
+        <v>0.5161835503811747</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.495902572833023</v>
+        <v>0.4924180899025364</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.5438892364944903</v>
+        <v>0.542277094924169</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4290667926775981</v>
+        <v>0.425154666828114</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3549373759062717</v>
+        <v>0.3606888162787275</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.504919821101693</v>
+        <v>0.4910385732529125</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.4590645355536614</v>
+        <v>0.4708113089222637</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2729994480930364</v>
+        <v>0.2732959653132987</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1949604451316194</v>
+        <v>0.1904172104436525</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3345286104487488</v>
+        <v>0.3388347072307031</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3125884798442997</v>
+        <v>0.3154996244042568</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2499826198199568</v>
+        <v>0.2491175096472877</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2873488714486765</v>
+        <v>0.2734924017423629</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3471657890681583</v>
+        <v>0.3479022951737886</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.373950687187419</v>
+        <v>0.3803615760881017</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2783337553679417</v>
+        <v>0.2764930752277935</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2403286832602875</v>
+        <v>0.2436748400029018</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.3599112274233274</v>
+        <v>0.3569312494696423</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.353192977467069</v>
+        <v>0.3564550804201865</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3623789901640502</v>
+        <v>0.3624026539284253</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2850212896858084</v>
+        <v>0.2863911516959972</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4472781426794449</v>
+        <v>0.4397335973822942</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4285503202460889</v>
+        <v>0.4279347521826236</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3751146895309611</v>
+        <v>0.3702513128093003</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.422472470837996</v>
+        <v>0.4139717717412385</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4851958805437624</v>
+        <v>0.4810040163889165</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4730438978071196</v>
+        <v>0.4780508569766415</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3503569665684023</v>
+        <v>0.3537740996175125</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3237690406722139</v>
+        <v>0.3235836307958318</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.442823257143179</v>
+        <v>0.439856719785752</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.4254943478501888</v>
+        <v>0.4320637545183581</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>13010</v>
+        <v>12860</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>12222</v>
+        <v>12343</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>12688</v>
+        <v>12554</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>15726</v>
+        <v>15234</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>6834</v>
+        <v>7098</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>7953</v>
+        <v>7791</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>6125</v>
+        <v>6151</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>18013</v>
+        <v>17688</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>23770</v>
+        <v>23085</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>22934</v>
+        <v>22616</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>21502</v>
+        <v>21267</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>37430</v>
+        <v>36591</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>29526</v>
+        <v>30156</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>28227</v>
+        <v>27752</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>26672</v>
+        <v>27577</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>35387</v>
+        <v>34701</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>17597</v>
+        <v>17693</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>19612</v>
+        <v>19453</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>16636</v>
+        <v>16274</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>31105</v>
+        <v>30922</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>43736</v>
+        <v>42757</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>42076</v>
+        <v>42323</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>39260</v>
+        <v>38237</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>62081</v>
+        <v>61295</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>37331</v>
+        <v>37533</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>13615</v>
+        <v>13914</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>22781</v>
+        <v>23407</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>39876</v>
+        <v>40610</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>6592</v>
+        <v>6474</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>15199</v>
+        <v>15014</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>17806</v>
+        <v>18069</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>33761</v>
+        <v>34886</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>46796</v>
+        <v>48190</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>31325</v>
+        <v>32172</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>44976</v>
+        <v>46710</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>80177</v>
+        <v>78328</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>61129</v>
+        <v>60871</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>30491</v>
+        <v>32100</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>43227</v>
+        <v>43630</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>67325</v>
+        <v>66574</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>19448</v>
+        <v>18593</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>30758</v>
+        <v>30442</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>32953</v>
+        <v>33098</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>51323</v>
+        <v>52202</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>75570</v>
+        <v>74363</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>55254</v>
+        <v>56644</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>69993</v>
+        <v>70920</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>111378</v>
+        <v>112690</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>18566</v>
+        <v>17806</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>14601</v>
+        <v>14030</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>35069</v>
+        <v>35014</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>17655</v>
+        <v>16462</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>9588</v>
+        <v>9830</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>9015</v>
+        <v>9001</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>21848</v>
+        <v>20761</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>23336</v>
+        <v>23040</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>32418</v>
+        <v>32641</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>27595</v>
+        <v>27816</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>61726</v>
+        <v>60951</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>43100</v>
+        <v>44316</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>39113</v>
+        <v>38613</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>31507</v>
+        <v>30987</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>55514</v>
+        <v>55301</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>35315</v>
+        <v>34381</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>22560</v>
+        <v>22186</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>22799</v>
+        <v>22839</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>37913</v>
+        <v>37229</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>38850</v>
+        <v>39143</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>56872</v>
+        <v>55742</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>49480</v>
+        <v>49794</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>88680</v>
+        <v>89035</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>68909</v>
+        <v>67099</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>40206</v>
+        <v>40644</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>8832</v>
+        <v>8830</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>30023</v>
+        <v>29910</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>25712</v>
+        <v>26056</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>20214</v>
+        <v>20229</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>16128</v>
+        <v>16442</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>16350</v>
+        <v>16038</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>40108</v>
+        <v>38973</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>68014</v>
+        <v>67790</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>29032</v>
+        <v>29503</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>51272</v>
+        <v>51025</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>70625</v>
+        <v>71577</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>62797</v>
+        <v>64188</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>23517</v>
+        <v>24184</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>48779</v>
+        <v>49731</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>45846</v>
+        <v>47606</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>38993</v>
+        <v>38031</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>31713</v>
+        <v>33085</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>32771</v>
+        <v>32540</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>57146</v>
+        <v>56977</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>96445</v>
+        <v>95566</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>50223</v>
+        <v>51037</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>77535</v>
+        <v>75403</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>96897</v>
+        <v>99376</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>128715</v>
+        <v>128855</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>63226</v>
+        <v>61753</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>116457</v>
+        <v>117956</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>118309</v>
+        <v>119411</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>55026</v>
+        <v>54836</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>61687</v>
+        <v>58713</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>75091</v>
+        <v>75251</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>127752</v>
+        <v>129943</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>192497</v>
+        <v>191224</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>129533</v>
+        <v>131336</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>203141</v>
+        <v>201459</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>254339</v>
+        <v>256688</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>170856</v>
+        <v>170867</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>92433</v>
+        <v>92878</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>155707</v>
+        <v>153081</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>162199</v>
+        <v>161966</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>82571</v>
+        <v>81500</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>90696</v>
+        <v>88871</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>104947</v>
+        <v>104040</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>161606</v>
+        <v>163316</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>242309</v>
+        <v>244672</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>174505</v>
+        <v>174405</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>249938</v>
+        <v>248263</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>306404</v>
+        <v>311134</v>
       </c>
     </row>
     <row r="24">
